--- a/public/downloads/results/2024/british/NON-TESTED-FP-CLASSIC-RAW.xlsx
+++ b/public/downloads/results/2024/british/NON-TESTED-FP-CLASSIC-RAW.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/UP DATED ROLLING  RECORDS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/BRITISH ROLLING  RECORDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="948" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F5AEFCB-F2D5-4E49-9598-48BFA37A1FD5}"/>
+  <xr:revisionPtr revIDLastSave="953" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E5D273D-CC36-4AEE-8B5C-AC2BDD90F3BC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="273">
   <si>
     <t>Weight</t>
   </si>
@@ -853,7 +853,13 @@
     <t>DAY OF THE DEAD</t>
   </si>
   <si>
-    <t>373.0KG</t>
+    <t>RECORD BRAKERS</t>
+  </si>
+  <si>
+    <t>161.0KG</t>
+  </si>
+  <si>
+    <t>368.5KG</t>
   </si>
 </sst>
 </file>
@@ -8315,8 +8321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7517E2C-6F9F-784C-B257-599DEE4B6BE5}">
   <dimension ref="A1:G478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="117" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="117" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9145,13 +9151,13 @@
         <v>213</v>
       </c>
       <c r="E82" s="16">
-        <v>45061</v>
+        <v>45256</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -9170,7 +9176,7 @@
         <v>108</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">

--- a/public/downloads/results/2024/british/NON-TESTED-FP-CLASSIC-RAW.xlsx
+++ b/public/downloads/results/2024/british/NON-TESTED-FP-CLASSIC-RAW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/BRITISH ROLLING  RECORDS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\BRITISH ROLLING  RECORDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="953" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E5D273D-CC36-4AEE-8B5C-AC2BDD90F3BC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3259A1-62B5-437E-A059-9785E5BD0726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN OPEN" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="275">
   <si>
     <t>Weight</t>
   </si>
@@ -523,9 +523,6 @@
     <t>CHRIS BAILEY</t>
   </si>
   <si>
-    <t>CHRIS MORROW</t>
-  </si>
-  <si>
     <t>ANDREW RUTTLAND</t>
   </si>
   <si>
@@ -860,6 +857,15 @@
   </si>
   <si>
     <t>368.5KG</t>
+  </si>
+  <si>
+    <t>KAMERON SINGH DHADDS</t>
+  </si>
+  <si>
+    <t>MAYHEM IN BOSTON</t>
+  </si>
+  <si>
+    <t>301.0KG</t>
   </si>
 </sst>
 </file>
@@ -995,9 +1001,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1035,7 +1041,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1141,7 +1147,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1283,7 +1289,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1293,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306999F4-8918-254E-B53D-F64ABC5BF343}">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1835,7 +1841,7 @@
         <v>69</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -1981,16 +1987,16 @@
         <v>9</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="E45" s="15">
-        <v>42105</v>
+        <v>45354</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>130</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2022,7 +2028,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E48" s="15">
         <v>41216</v>
@@ -2031,7 +2037,7 @@
         <v>69</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2041,7 +2047,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E49" s="15">
         <v>41216</v>
@@ -2060,7 +2066,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E50" s="15">
         <v>43798</v>
@@ -2069,7 +2075,7 @@
         <v>69</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2079,7 +2085,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E51" s="15">
         <v>41216</v>
@@ -2088,7 +2094,7 @@
         <v>69</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -2109,16 +2115,16 @@
         <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E53" s="15">
         <v>44394</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -2128,13 +2134,13 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E54" s="15">
         <v>44394</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>116</v>
@@ -2147,16 +2153,16 @@
         <v>9</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E55" s="15">
         <v>44394</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -2166,16 +2172,16 @@
         <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E56" s="15">
         <v>44394</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2803,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7186C1C6-534A-8649-9BC5-24AFC98A5F9D}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -2971,7 +2977,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" s="18">
         <v>44344</v>
@@ -2980,7 +2986,7 @@
         <v>69</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -2990,7 +2996,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" s="18">
         <v>44344</v>
@@ -2999,7 +3005,7 @@
         <v>69</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -3009,7 +3015,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E16" s="18">
         <v>44344</v>
@@ -3018,7 +3024,7 @@
         <v>69</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -3028,7 +3034,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E17" s="18">
         <v>44344</v>
@@ -3037,7 +3043,7 @@
         <v>69</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -3058,7 +3064,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E19" s="18">
         <v>42105</v>
@@ -3067,7 +3073,7 @@
         <v>69</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -3077,7 +3083,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E20" s="18">
         <v>43709</v>
@@ -3086,7 +3092,7 @@
         <v>69</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -3096,7 +3102,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E21" s="18">
         <v>43709</v>
@@ -3115,7 +3121,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" s="18">
         <v>42105</v>
@@ -3124,7 +3130,7 @@
         <v>69</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -3145,7 +3151,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E24" s="18">
         <v>42105</v>
@@ -3164,7 +3170,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E25" s="18">
         <v>42105</v>
@@ -3173,7 +3179,7 @@
         <v>69</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -3183,7 +3189,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E26" s="18">
         <v>42105</v>
@@ -3192,7 +3198,7 @@
         <v>69</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -3202,7 +3208,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E27" s="18">
         <v>42105</v>
@@ -3211,7 +3217,7 @@
         <v>69</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -3232,7 +3238,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E29" s="18">
         <v>43709</v>
@@ -3241,7 +3247,7 @@
         <v>69</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -3251,7 +3257,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E30" s="18">
         <v>43603</v>
@@ -3260,7 +3266,7 @@
         <v>69</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -3270,7 +3276,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E31" s="18">
         <v>43709</v>
@@ -3289,7 +3295,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E32" s="18">
         <v>43709</v>
@@ -3298,7 +3304,7 @@
         <v>69</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -3319,7 +3325,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E34" s="18">
         <v>44836</v>
@@ -3328,7 +3334,7 @@
         <v>69</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -3338,7 +3344,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E35" s="18">
         <v>44836</v>
@@ -3347,7 +3353,7 @@
         <v>69</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -3357,7 +3363,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E36" s="18">
         <v>44836</v>
@@ -3376,7 +3382,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E37" s="18">
         <v>44836</v>
@@ -3385,7 +3391,7 @@
         <v>69</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -3406,16 +3412,16 @@
         <v>7</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E39" s="18">
         <v>44962</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -3425,16 +3431,16 @@
         <v>8</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E40" s="18">
         <v>44962</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -3444,7 +3450,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E41" s="18">
         <v>43709</v>
@@ -3463,7 +3469,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E42" s="18">
         <v>43709</v>
@@ -3472,7 +3478,7 @@
         <v>69</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -3493,7 +3499,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E44" s="18">
         <v>44388</v>
@@ -3512,7 +3518,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E45" s="18">
         <v>44076</v>
@@ -3521,7 +3527,7 @@
         <v>69</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -3531,7 +3537,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E46" s="18">
         <v>44078</v>
@@ -3540,7 +3546,7 @@
         <v>69</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -3550,7 +3556,7 @@
         <v>10</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E47" s="18">
         <v>44078</v>
@@ -3559,7 +3565,7 @@
         <v>69</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -3635,7 +3641,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E54" s="16">
         <v>44394</v>
@@ -3652,7 +3658,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E55" s="16">
         <v>44394</v>
@@ -3661,7 +3667,7 @@
         <v>69</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -3669,7 +3675,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E56" s="16">
         <v>44394</v>
@@ -3678,7 +3684,7 @@
         <v>69</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -3686,7 +3692,7 @@
         <v>10</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E57" s="16">
         <v>44394</v>
@@ -3695,7 +3701,7 @@
         <v>69</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -3884,7 +3890,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E18" s="16">
         <v>42105</v>
@@ -3893,7 +3899,7 @@
         <v>69</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -3903,13 +3909,13 @@
         <v>8</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>69</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -3919,13 +3925,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -3935,13 +3941,13 @@
         <v>10</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>69</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -4194,7 +4200,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E43" s="16">
         <v>43870</v>
@@ -4213,7 +4219,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E44" s="16">
         <v>43870</v>
@@ -4232,7 +4238,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E45" s="16">
         <v>43870</v>
@@ -4251,7 +4257,7 @@
         <v>10</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E46" s="16">
         <v>43870</v>
@@ -4260,7 +4266,7 @@
         <v>69</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -4284,7 +4290,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E49" s="16">
         <v>41756</v>
@@ -4869,7 +4875,7 @@
         <v>7</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E110" s="16">
         <v>44345</v>
@@ -4888,7 +4894,7 @@
         <v>8</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E111" s="16">
         <v>44345</v>
@@ -4907,7 +4913,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E112" s="16">
         <v>44345</v>
@@ -4926,7 +4932,7 @@
         <v>10</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E113" s="16">
         <v>44345</v>
@@ -4935,7 +4941,7 @@
         <v>69</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -5325,7 +5331,7 @@
         <v>7</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>69</v>
@@ -5344,7 +5350,7 @@
         <v>8</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>69</v>
@@ -5363,7 +5369,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>69</v>
@@ -5382,7 +5388,7 @@
         <v>10</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>69</v>
@@ -5391,7 +5397,7 @@
         <v>44345</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
@@ -5478,7 +5484,7 @@
         <v>7</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E181" s="16">
         <v>44696</v>
@@ -5487,7 +5493,7 @@
         <v>109</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
@@ -5497,7 +5503,7 @@
         <v>8</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E182" s="16">
         <v>44696</v>
@@ -5506,7 +5512,7 @@
         <v>109</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
@@ -5516,7 +5522,7 @@
         <v>9</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E183" s="16">
         <v>44696</v>
@@ -5525,7 +5531,7 @@
         <v>109</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
@@ -5535,7 +5541,7 @@
         <v>10</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E184" s="16">
         <v>44696</v>
@@ -5544,7 +5550,7 @@
         <v>109</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
@@ -6424,7 +6430,7 @@
         <v>8</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E291" s="16">
         <v>43603</v>
@@ -6433,7 +6439,7 @@
         <v>69</v>
       </c>
       <c r="G291" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
@@ -6443,7 +6449,7 @@
         <v>9</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E292" s="16">
         <v>43603</v>
@@ -8321,7 +8327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7517E2C-6F9F-784C-B257-599DEE4B6BE5}">
   <dimension ref="A1:G478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="117" workbookViewId="0">
+    <sheetView topLeftCell="A71" zoomScale="117" workbookViewId="0">
       <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
@@ -8521,7 +8527,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E23" s="16">
         <v>44531</v>
@@ -8530,7 +8536,7 @@
         <v>69</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -8540,7 +8546,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E24" s="16">
         <v>44531</v>
@@ -8549,7 +8555,7 @@
         <v>69</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -8559,7 +8565,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E25" s="16">
         <v>44531</v>
@@ -8568,7 +8574,7 @@
         <v>69</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -8578,7 +8584,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E26" s="16">
         <v>44531</v>
@@ -8587,7 +8593,7 @@
         <v>69</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -8605,16 +8611,16 @@
         <v>7</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E28" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -8624,7 +8630,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E29" s="16">
         <v>43798</v>
@@ -8633,7 +8639,7 @@
         <v>109</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -8643,7 +8649,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E30" s="16">
         <v>43798</v>
@@ -8662,7 +8668,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E31" s="16">
         <v>43798</v>
@@ -8671,7 +8677,7 @@
         <v>109</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -9026,7 +9032,7 @@
         <v>7</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E75" s="16">
         <v>43604</v>
@@ -9035,7 +9041,7 @@
         <v>69</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -9045,7 +9051,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E76" s="16">
         <v>43604</v>
@@ -9054,7 +9060,7 @@
         <v>69</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -9064,7 +9070,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E77" s="16">
         <v>43604</v>
@@ -9083,7 +9089,7 @@
         <v>10</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E78" s="16">
         <v>43604</v>
@@ -9110,13 +9116,13 @@
         <v>7</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E80" s="16">
         <v>45200</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>87</v>
@@ -9129,16 +9135,16 @@
         <v>8</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E81" s="16">
         <v>44962</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -9148,16 +9154,16 @@
         <v>9</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E82" s="16">
         <v>45256</v>
       </c>
       <c r="F82" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G82" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -9167,7 +9173,7 @@
         <v>10</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E83" s="16">
         <v>44696</v>
@@ -9176,7 +9182,7 @@
         <v>108</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -9194,7 +9200,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E85" s="16">
         <v>44078</v>
@@ -9213,7 +9219,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E86" s="16">
         <v>44078</v>
@@ -9222,7 +9228,7 @@
         <v>69</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -9232,7 +9238,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E87" s="16">
         <v>44078</v>
@@ -9241,7 +9247,7 @@
         <v>69</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -9251,7 +9257,7 @@
         <v>10</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E88" s="16">
         <v>44078</v>
@@ -9260,7 +9266,7 @@
         <v>69</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -9278,7 +9284,7 @@
         <v>7</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E90" s="16">
         <v>43657</v>
@@ -9297,7 +9303,7 @@
         <v>8</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E91" s="16">
         <v>43870</v>
@@ -9306,7 +9312,7 @@
         <v>69</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -9316,7 +9322,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E92" s="16">
         <v>43657</v>
@@ -9325,7 +9331,7 @@
         <v>69</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -9335,7 +9341,7 @@
         <v>10</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E93" s="16">
         <v>43657</v>
@@ -9344,7 +9350,7 @@
         <v>69</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -9362,7 +9368,7 @@
         <v>7</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E95" s="16">
         <v>44924</v>
@@ -9371,7 +9377,7 @@
         <v>69</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -9381,7 +9387,7 @@
         <v>8</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E96" s="16">
         <v>44924</v>
@@ -9390,7 +9396,7 @@
         <v>69</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -9400,7 +9406,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E97" s="16">
         <v>44924</v>
@@ -9409,7 +9415,7 @@
         <v>69</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -9419,7 +9425,7 @@
         <v>10</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E98" s="16">
         <v>44924</v>
@@ -9428,7 +9434,7 @@
         <v>69</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -9454,7 +9460,7 @@
         <v>8</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E101" s="16">
         <v>42071</v>
@@ -9463,7 +9469,7 @@
         <v>69</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -9473,7 +9479,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E102" s="16">
         <v>42071</v>
@@ -9548,7 +9554,7 @@
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>7</v>
@@ -9731,7 +9737,7 @@
         <v>7</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E133" s="16">
         <v>43870</v>
@@ -9740,7 +9746,7 @@
         <v>69</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -9750,7 +9756,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E134" s="16">
         <v>43870</v>
@@ -9759,7 +9765,7 @@
         <v>69</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
@@ -9769,7 +9775,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E135" s="16">
         <v>43870</v>
@@ -9778,7 +9784,7 @@
         <v>69</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
@@ -9788,7 +9794,7 @@
         <v>10</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E136" s="16">
         <v>43870</v>
@@ -9797,7 +9803,7 @@
         <v>69</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
@@ -9815,7 +9821,7 @@
         <v>7</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E138" s="16">
         <v>43604</v>
@@ -9824,7 +9830,7 @@
         <v>69</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -9834,7 +9840,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E139" s="16">
         <v>43604</v>
@@ -9843,7 +9849,7 @@
         <v>69</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -9853,7 +9859,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E140" s="16">
         <v>43604</v>
@@ -9872,7 +9878,7 @@
         <v>10</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E141" s="16">
         <v>43604</v>
@@ -9939,7 +9945,7 @@
         <v>7</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E148" s="16">
         <v>44078</v>
@@ -9958,7 +9964,7 @@
         <v>8</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E149" s="16">
         <v>44078</v>
@@ -9967,7 +9973,7 @@
         <v>69</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
@@ -9977,7 +9983,7 @@
         <v>9</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E150" s="16">
         <v>44078</v>
@@ -9986,7 +9992,7 @@
         <v>69</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
@@ -9996,7 +10002,7 @@
         <v>10</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E151" s="16">
         <v>44078</v>
@@ -10005,7 +10011,7 @@
         <v>69</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
@@ -10023,7 +10029,7 @@
         <v>7</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E153" s="16">
         <v>43657</v>
@@ -10042,7 +10048,7 @@
         <v>8</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E154" s="16">
         <v>43870</v>
@@ -10051,7 +10057,7 @@
         <v>69</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -10061,7 +10067,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E155" s="16">
         <v>43870</v>
@@ -10080,7 +10086,7 @@
         <v>10</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E156" s="16">
         <v>43870</v>
@@ -10089,7 +10095,7 @@
         <v>69</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
@@ -13718,7 +13724,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E48" s="15">
         <v>42105</v>
@@ -13748,7 +13754,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E49" s="15">
         <v>42105</v>
@@ -13757,7 +13763,7 @@
         <v>69</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
@@ -13776,7 +13782,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E50" s="15">
         <v>42105</v>
@@ -13785,7 +13791,7 @@
         <v>69</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
@@ -13804,7 +13810,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E51" s="15">
         <v>42105</v>
@@ -13901,10 +13907,10 @@
         <v>9</v>
       </c>
       <c r="K55" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>86</v>
@@ -15284,7 +15290,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E13" s="18">
         <v>44344</v>
@@ -15293,7 +15299,7 @@
         <v>69</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1" t="s">
@@ -15313,7 +15319,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" s="18">
         <v>44344</v>
@@ -15322,7 +15328,7 @@
         <v>69</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="1"/>
@@ -15340,7 +15346,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" s="18">
         <v>44344</v>
@@ -15349,7 +15355,7 @@
         <v>69</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
@@ -15367,7 +15373,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E16" s="18">
         <v>44344</v>
@@ -15376,7 +15382,7 @@
         <v>69</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
@@ -15506,7 +15512,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E23" s="15">
         <v>43798</v>
@@ -15515,7 +15521,7 @@
         <v>69</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="1" t="s">
@@ -15535,7 +15541,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E24" s="15">
         <v>43798</v>
@@ -15544,7 +15550,7 @@
         <v>69</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="1"/>
@@ -15562,7 +15568,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E25" s="15">
         <v>43798</v>
@@ -15589,7 +15595,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="15">
         <v>43798</v>
@@ -17312,7 +17318,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E48" s="17">
         <v>44345</v>
@@ -17321,7 +17327,7 @@
         <v>69</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -17331,7 +17337,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E49" s="17">
         <v>44696</v>
@@ -17340,7 +17346,7 @@
         <v>109</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -17350,7 +17356,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E50" s="17">
         <v>44345</v>
@@ -17359,7 +17365,7 @@
         <v>69</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -17369,7 +17375,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E51" s="17">
         <v>44345</v>
@@ -17378,7 +17384,7 @@
         <v>69</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -18352,7 +18358,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E18" s="15">
         <v>44345</v>
@@ -18361,7 +18367,7 @@
         <v>69</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -18371,7 +18377,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E19" s="15">
         <v>42105</v>
@@ -18380,7 +18386,7 @@
         <v>69</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -18390,7 +18396,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E20" s="15">
         <v>44345</v>
@@ -18399,7 +18405,7 @@
         <v>69</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -18409,7 +18415,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E21" s="15">
         <v>44345</v>
@@ -18418,7 +18424,7 @@
         <v>69</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -18439,7 +18445,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E23" s="15">
         <v>44344</v>
@@ -18448,7 +18454,7 @@
         <v>69</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -18458,7 +18464,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E24" s="15">
         <v>44344</v>
@@ -18467,7 +18473,7 @@
         <v>69</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -18477,7 +18483,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E25" s="15">
         <v>44344</v>
@@ -18486,7 +18492,7 @@
         <v>69</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -18496,7 +18502,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E26" s="15">
         <v>44344</v>
@@ -18526,7 +18532,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E28" s="15">
         <v>44344</v>
@@ -18535,7 +18541,7 @@
         <v>69</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -18545,7 +18551,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E29" s="15">
         <v>44344</v>
@@ -18554,7 +18560,7 @@
         <v>69</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -18564,7 +18570,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E30" s="15">
         <v>44344</v>
@@ -18583,7 +18589,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E31" s="15">
         <v>44344</v>
@@ -18592,7 +18598,7 @@
         <v>69</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
